--- a/biology/Mycologie/Exidia_glandulosa/Exidia_glandulosa.xlsx
+++ b/biology/Mycologie/Exidia_glandulosa/Exidia_glandulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exidia glandulosa, en français l'Exidie glanduleuse, est une espèce de champignons (Fungi) basidiomycètes de la famille des Auriculariaceae. Elle n'est pas comestible.
-Agent de la pourriture fibreuse, ce champignon porte le nom vernaculaire de beurre de sorcière (comme les Trémelles) ou beurre noir de sorcière[1].
+Agent de la pourriture fibreuse, ce champignon porte le nom vernaculaire de beurre de sorcière (comme les Trémelles) ou beurre noir de sorcière.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle croît toute l'année sur les branches mortes des feuillus.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle forme des masses noires gélatineuses, irrégulières, plissées ou lobées.
 </t>
